--- a/default/3_sut_multi_year_rcot_cap - Copy/input_data/input_data.xlsx
+++ b/default/3_sut_multi_year_rcot_cap - Copy/input_data/input_data.xlsx
@@ -5,46 +5,31 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\pyesm\default\rcot_cap\input_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\MIMO\pyESM\default\3_sut_multi_year_rcot_cap\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E76F2FA-E755-48AF-9862-9B5F7119CE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F53E6E-8699-419D-A954-FA5F75AC4552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="d" sheetId="1" r:id="rId1"/>
     <sheet name="u" sheetId="2" r:id="rId2"/>
-    <sheet name="c" sheetId="3" r:id="rId3"/>
-    <sheet name="e" sheetId="4" r:id="rId4"/>
-    <sheet name="c_start" sheetId="5" r:id="rId5"/>
-    <sheet name="lf_range" sheetId="6" r:id="rId6"/>
-    <sheet name="Y" sheetId="7" r:id="rId7"/>
-    <sheet name="I_ff" sheetId="8" r:id="rId8"/>
+    <sheet name="e" sheetId="3" r:id="rId3"/>
+    <sheet name="c_start" sheetId="4" r:id="rId4"/>
+    <sheet name="lf_range" sheetId="5" r:id="rId5"/>
+    <sheet name="Y" sheetId="6" r:id="rId6"/>
+    <sheet name="I_ff" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'c'!$A$1:$E$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Y!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Y!$A$1:$E$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -88,55 +73,37 @@
     <t>Electricity</t>
   </si>
   <si>
-    <t>c_Name</t>
-  </si>
-  <si>
-    <t>Investment costs</t>
-  </si>
-  <si>
-    <t>O&amp;M costs</t>
-  </si>
-  <si>
     <t>e_Name</t>
   </si>
   <si>
-    <t>CO2 emissions</t>
-  </si>
-  <si>
-    <t>cs_Name</t>
-  </si>
-  <si>
-    <t>cap_start</t>
+    <t>CO2</t>
   </si>
   <si>
     <t>lf_Name</t>
   </si>
   <si>
-    <t>Min load factor</t>
-  </si>
-  <si>
-    <t>Max load factor</t>
+    <t>lf max</t>
+  </si>
+  <si>
+    <t>lf min</t>
   </si>
   <si>
     <t>y_Name</t>
   </si>
   <si>
-    <t>y.1</t>
-  </si>
-  <si>
-    <t>Final demand</t>
-  </si>
-  <si>
-    <t>y.2</t>
-  </si>
-  <si>
-    <t>y.3</t>
-  </si>
-  <si>
-    <t>y.4</t>
-  </si>
-  <si>
-    <t>y.5</t>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>y3</t>
+  </si>
+  <si>
+    <t>y4</t>
+  </si>
+  <si>
+    <t>y5</t>
   </si>
 </sst>
 </file>
@@ -210,7 +177,7 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -512,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A6" activeCellId="1" sqref="A2:XFD2 A6:XFD6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,7 +672,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E7"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,19 +810,310 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E4"/>
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -866,10 +1124,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -883,13 +1141,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="E2" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -900,13 +1158,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="E3" s="2">
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -917,69 +1175,137 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="E4" s="2">
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="E5" s="2">
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="E6" s="2">
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2">
+        <v>508022.19999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2">
+        <v>518182.64399999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2">
+        <v>528546.29687999992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2">
+        <v>539117.22281759989</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2">
+        <v>549899.56727395195</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0200-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E7">
+  <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0500-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E11">
       <sortCondition ref="D1"/>
     </sortState>
   </autoFilter>
@@ -987,17 +1313,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E4"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1008,563 +1335,6 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="6" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="2">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="2">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="2">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="2">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="2">
-        <v>508022.19999999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="2">
-        <v>518182.64399999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="2">
-        <v>528546.29687999992</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="2">
-        <v>539117.22281759989</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="2">
-        <v>549899.56727395195</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0600-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F11">
-      <sortCondition ref="D1"/>
-    </sortState>
-  </autoFilter>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
